--- a/ExcelData/Data_Table/SpritSkill.xlsx
+++ b/ExcelData/Data_Table/SpritSkill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45162C28-DACF-4EA7-8918-348423DF71FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F9BEA4-90E5-4E10-BFB5-3531E784EDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>번호</t>
   </si>
@@ -103,14 +103,6 @@
   </si>
   <si>
     <t>BossIndex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -325,6 +317,10 @@
   </si>
   <si>
     <t>프리팹</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -945,24 +941,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -998,6 +976,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,11 +1317,11 @@
       <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1363,11 +1359,11 @@
       <c r="F3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="26" t="s">
         <v>13</v>
       </c>
@@ -1393,13 +1389,13 @@
       <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="65"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="27"/>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
@@ -1423,13 +1419,13 @@
       <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="27"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
@@ -1453,13 +1449,13 @@
       <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="27"/>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
@@ -1483,13 +1479,13 @@
       <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="66"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="28"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="27"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
@@ -1513,13 +1509,13 @@
       <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="27"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="27"/>
       <c r="K8" s="14"/>
       <c r="L8" s="15"/>
@@ -1543,13 +1539,13 @@
       <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="28"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="61"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="30"/>
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
@@ -1573,13 +1569,13 @@
       <c r="B10" s="25">
         <v>7</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="66"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="27"/>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
@@ -1603,13 +1599,13 @@
       <c r="B11" s="25">
         <v>8</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="28"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="27"/>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
@@ -1633,13 +1629,13 @@
       <c r="B12" s="25">
         <v>9</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="66"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="27"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
@@ -1663,13 +1659,13 @@
       <c r="B13" s="25">
         <v>10</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="27"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="27"/>
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
@@ -1693,13 +1689,13 @@
       <c r="B14" s="25">
         <v>11</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="68"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
@@ -1723,13 +1719,13 @@
       <c r="B15" s="25">
         <v>12</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="69"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="28"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="27"/>
       <c r="K15" s="14"/>
       <c r="L15" s="15"/>
@@ -1753,13 +1749,13 @@
       <c r="B16" s="25">
         <v>13</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="27"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="61"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="27"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
@@ -23788,6 +23784,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C4:C16"/>
@@ -23801,11 +23802,6 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -23818,7 +23814,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:R5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -23883,7 +23879,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="81" t="s">
         <v>18</v>
@@ -23896,11 +23892,11 @@
       <c r="L2" s="82"/>
       <c r="M2" s="83"/>
       <c r="N2" s="76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O2" s="77"/>
       <c r="P2" s="78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="79"/>
       <c r="R2" s="80"/>
@@ -23924,40 +23920,40 @@
         <v>19</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="J3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="K3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="L3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="N3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="45" t="s">
-        <v>44</v>
-      </c>
       <c r="O3" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P3" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R3" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="1"/>
@@ -23982,43 +23978,43 @@
         <v>23</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="J4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="K4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="M4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="46" t="s">
-        <v>43</v>
-      </c>
       <c r="N4" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S4" s="31" t="s">
         <v>21</v>
@@ -24045,43 +24041,43 @@
         <v>14</v>
       </c>
       <c r="F5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="46" t="s">
+      <c r="O5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="35" t="s">
-        <v>28</v>
-      </c>
       <c r="P5" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>22</v>
